--- a/week-2/Solutions/2-5-A-data-validation-solutions.xlsx
+++ b/week-2/Solutions/2-5-A-data-validation-solutions.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Solutions\2-5-A-data-validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB15947-2435-4D3B-8825-E07D5CDEEA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5D431-D39A-4DC5-9A27-90510F9CBBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data-validation" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="starbucks-solution" sheetId="1" r:id="rId1"/>
+    <sheet name="staffing-model-dropdown" sheetId="2" r:id="rId2"/>
+    <sheet name="staffing-model-lock" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -380,57 +380,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -450,42 +406,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -520,34 +497,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -833,177 +810,177 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="26">
         <v>2.95</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="26">
         <v>3.75</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="27">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="29">
         <v>2.95</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="29">
         <v>3.65</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="30">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2">
         <f>INDEX($A$1:$D$10,MATCH($G$1,$A$1:$A$10,0),MATCH($G$2,$A$1:$D$1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
+        <v>3.75</v>
+      </c>
+      <c r="C4" s="26">
+        <v>3.95</v>
+      </c>
+      <c r="D4" s="27">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="29">
+        <v>3.95</v>
+      </c>
+      <c r="D5" s="30">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>3.45</v>
+      </c>
+      <c r="C6" s="26">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D6" s="27">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="30">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26">
+        <v>3.95</v>
+      </c>
+      <c r="C8" s="26">
+        <v>4.75</v>
+      </c>
+      <c r="D8" s="27">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="C9" s="29">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3.75</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3.95</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>3.25</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3.95</v>
-      </c>
-      <c r="D5" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3.45</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="D9" s="30">
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>3.95</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4.75</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2.25</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="D9" s="11">
-        <v>2.75</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="32">
         <v>1.75</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="32">
         <v>1.95</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="33">
         <v>2.0499999999999998</v>
       </c>
     </row>
@@ -1028,371 +1005,371 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="15"/>
-    <col min="10" max="10" width="13.28515625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="13.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="9">
         <f t="shared" ref="B5:B10" si="0">SUMIF($C$4:$E$4,$B$1,C5:E5)</f>
+        <v>8000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="10">
         <v>10000</v>
       </c>
-      <c r="C5" s="22">
-        <v>8000</v>
-      </c>
-      <c r="D5" s="22">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="E5" s="10">
         <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="15">
         <v>0.04</v>
       </c>
-      <c r="C6" s="27">
-        <v>0.02</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="E6" s="15">
         <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>9000000</v>
+      </c>
+      <c r="D7" s="14">
         <v>8000000</v>
       </c>
-      <c r="C7" s="23">
+      <c r="E7" s="11">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C9" s="11">
+        <v>75</v>
+      </c>
+      <c r="D9" s="11">
+        <v>50</v>
+      </c>
+      <c r="E9" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>175000</v>
+      </c>
+      <c r="C10" s="11">
+        <v>175000</v>
+      </c>
+      <c r="D10" s="11">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10">
+        <v>100000</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14*(1+$B$6)</f>
+        <v>102000</v>
+      </c>
+      <c r="D14" s="9">
+        <f>C14*(1+$B$6)</f>
+        <v>104040</v>
+      </c>
+      <c r="E14" s="9">
+        <f>D14*(1+$B$6)</f>
+        <v>106120.8</v>
+      </c>
+      <c r="F14" s="9">
+        <f>E14*(1+$B$6)</f>
+        <v>108243.216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8">
+        <f>ROUNDUP(B14/$B$5,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="8">
+        <f>ROUNDUP(C14/$B$5,0)</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="8">
+        <f>ROUNDUP(D14/$B$5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E15" s="8">
+        <f>ROUNDUP(E14/$B$5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="F15" s="8">
+        <f>ROUNDUP(F14/$B$5,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B9</f>
+        <v>75</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16:F17" si="1">B16*(1+$B$8)</f>
+        <v>77.625</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>80.341874999999987</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>83.153840624999987</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>86.064225046874981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B10</f>
+        <v>175000</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>181125</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>187464.375</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>194025.62812499999</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>200816.52510937498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B7</f>
         <v>9000000</v>
       </c>
-      <c r="D7" s="26">
-        <v>8000000</v>
-      </c>
-      <c r="E7" s="23">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="25">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="C8" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="24">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="18">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C9" s="23">
-        <v>75</v>
-      </c>
-      <c r="D9" s="23">
-        <v>50</v>
-      </c>
-      <c r="E9" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="18">
-        <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-      <c r="C10" s="23">
-        <v>175000</v>
-      </c>
-      <c r="D10" s="23">
-        <v>150000</v>
-      </c>
-      <c r="E10" s="23">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="22">
-        <v>100000</v>
-      </c>
-      <c r="C14" s="21">
-        <f>B14*(1+$B$6)</f>
-        <v>104000</v>
-      </c>
-      <c r="D14" s="21">
-        <f>C14*(1+$B$6)</f>
-        <v>108160</v>
-      </c>
-      <c r="E14" s="21">
-        <f>D14*(1+$B$6)</f>
-        <v>112486.40000000001</v>
-      </c>
-      <c r="F14" s="21">
-        <f>E14*(1+$B$6)</f>
-        <v>116985.85600000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="20">
-        <f>ROUNDUP(B14/$B$5,0)</f>
-        <v>10</v>
-      </c>
-      <c r="C15" s="20">
-        <f>ROUNDUP(C14/$B$5,0)</f>
-        <v>11</v>
-      </c>
-      <c r="D15" s="20">
-        <f>ROUNDUP(D14/$B$5,0)</f>
-        <v>11</v>
-      </c>
-      <c r="E15" s="20">
-        <f>ROUNDUP(E14/$B$5,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F15" s="20">
-        <f>ROUNDUP(F14/$B$5,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="18">
-        <f>B9</f>
-        <v>50</v>
-      </c>
-      <c r="C16" s="18">
-        <f t="shared" ref="C16:F17" si="1">B16*(1+$B$8)</f>
-        <v>51.5</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="1"/>
-        <v>53.045000000000002</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" si="1"/>
-        <v>54.63635</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="1"/>
-        <v>56.275440500000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="18">
-        <f>B10</f>
-        <v>150000</v>
-      </c>
-      <c r="C17" s="19">
-        <f t="shared" si="1"/>
-        <v>154500</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" si="1"/>
-        <v>159135</v>
-      </c>
-      <c r="E17" s="19">
-        <f t="shared" si="1"/>
-        <v>163909.05000000002</v>
-      </c>
-      <c r="F17" s="19">
-        <f t="shared" si="1"/>
-        <v>168826.32150000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="18">
-        <f>B7</f>
-        <v>8000000</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="C19" s="6">
         <f>B19*(1+$B$8)</f>
-        <v>8240000</v>
-      </c>
-      <c r="D19" s="18">
+        <v>9315000</v>
+      </c>
+      <c r="D19" s="6">
         <f>C19*(1+$B$8)</f>
-        <v>8487200</v>
-      </c>
-      <c r="E19" s="18">
+        <v>9641025</v>
+      </c>
+      <c r="E19" s="6">
         <f>D19*(1+$B$8)</f>
-        <v>8741816</v>
-      </c>
-      <c r="F19" s="18">
+        <v>9978460.875</v>
+      </c>
+      <c r="F19" s="6">
         <f>E19*(1+$B$8)</f>
-        <v>9004070.4800000004</v>
+        <v>10327707.005624998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="6">
         <f>B14*B16</f>
-        <v>5000000</v>
-      </c>
-      <c r="C20" s="18">
+        <v>7500000</v>
+      </c>
+      <c r="C20" s="6">
         <f>C14*C16</f>
-        <v>5356000</v>
-      </c>
-      <c r="D20" s="18">
+        <v>7917750</v>
+      </c>
+      <c r="D20" s="6">
         <f>D14*D16</f>
-        <v>5737347.2000000002</v>
-      </c>
-      <c r="E20" s="18">
+        <v>8358768.6749999989</v>
+      </c>
+      <c r="E20" s="6">
         <f>E14*E16</f>
-        <v>6145846.3206400005</v>
-      </c>
-      <c r="F20" s="18">
+        <v>8824352.090197498</v>
+      </c>
+      <c r="F20" s="6">
         <f>F14*F16</f>
-        <v>6583430.5786695695</v>
+        <v>9315868.5016214978</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="6">
         <f>B17*B15</f>
-        <v>1500000</v>
-      </c>
-      <c r="C21" s="18">
+        <v>2275000</v>
+      </c>
+      <c r="C21" s="6">
         <f>C17*C15</f>
-        <v>1699500</v>
-      </c>
-      <c r="D21" s="18">
+        <v>2354625</v>
+      </c>
+      <c r="D21" s="6">
         <f>D17*D15</f>
-        <v>1750485</v>
-      </c>
-      <c r="E21" s="18">
+        <v>2624501.25</v>
+      </c>
+      <c r="E21" s="6">
         <f>E17*E15</f>
-        <v>1966908.6</v>
-      </c>
-      <c r="F21" s="18">
+        <v>2716358.7937499997</v>
+      </c>
+      <c r="F21" s="6">
         <f>F17*F15</f>
-        <v>2025915.8580000002</v>
+        <v>2811431.3515312499</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="4">
         <f>SUM(B19:B21)</f>
-        <v>14500000</v>
-      </c>
-      <c r="C22" s="16">
+        <v>18775000</v>
+      </c>
+      <c r="C22" s="4">
         <f>SUM(C19:C21)</f>
-        <v>15295500</v>
-      </c>
-      <c r="D22" s="16">
+        <v>19587375</v>
+      </c>
+      <c r="D22" s="4">
         <f>SUM(D19:D21)</f>
-        <v>15975032.199999999</v>
-      </c>
-      <c r="E22" s="16">
+        <v>20624294.924999997</v>
+      </c>
+      <c r="E22" s="4">
         <f>SUM(E19:E21)</f>
-        <v>16854570.920640003</v>
-      </c>
-      <c r="F22" s="16">
+        <v>21519171.758947495</v>
+      </c>
+      <c r="F22" s="4">
         <f>SUM(F19:F21)</f>
-        <v>17613416.91666957</v>
+        <v>22455006.858777743</v>
       </c>
     </row>
   </sheetData>
@@ -1410,27 +1387,27 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" style="33"/>
-    <col min="10" max="10" width="13.28515625" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="33"/>
+    <col min="1" max="1" width="30.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="34"/>
+    <col min="10" max="10" width="13.28515625" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1440,176 +1417,176 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="39">
         <f t="shared" ref="B5:B10" si="0">SUMIF($C$4:$E$4,$B$1,C5:E5)</f>
         <v>12000</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="46">
         <v>8000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="46">
         <v>10000</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="46">
         <v>12000</v>
       </c>
-      <c r="G5" s="33" t="str">
+      <c r="G5" s="34" t="str">
         <f t="shared" ref="G5:G10" ca="1" si="1">_xlfn.FORMULATEXT(B5)</f>
         <v>=SUMIF($C$4:$E$4,$B$1,C5:E5)</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="48">
         <v>0.02</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="48">
         <v>0.04</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="48">
         <v>0.06</v>
       </c>
-      <c r="G6" s="33" t="str">
+      <c r="G6" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C6:E6)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="41">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="49">
         <v>9000000</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="50">
         <v>8000000</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="49">
         <v>7000000</v>
       </c>
-      <c r="G7" s="33" t="str">
+      <c r="G7" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C7:E7)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="42">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="51">
         <v>0.03</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="51">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G8" s="33" t="str">
+      <c r="G8" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C8:E8)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="49">
         <v>75</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="49">
         <v>50</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="49">
         <v>25</v>
       </c>
-      <c r="G9" s="33" t="str">
+      <c r="G9" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C9:E9)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="41">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="49">
         <v>175000</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="49">
         <v>150000</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="49">
         <v>125000</v>
       </c>
-      <c r="G10" s="33" t="str">
+      <c r="G10" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C10:E10)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="46">
         <v>100000</v>
       </c>
       <c r="C14" s="39">
@@ -1630,151 +1607,151 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="43">
         <f>ROUNDUP(B14/$B$5,0)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="43">
         <f>ROUNDUP(C14/$B$5,0)</f>
         <v>9</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="43">
         <f>ROUNDUP(D14/$B$5,0)</f>
         <v>10</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="43">
         <f>ROUNDUP(E14/$B$5,0)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="43">
         <f>ROUNDUP(F14/$B$5,0)</f>
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="41">
         <f>B9</f>
         <v>25</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="41">
         <f t="shared" ref="C16:F17" si="2">B16*(1+$B$8)</f>
         <v>25.624999999999996</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="41">
         <f t="shared" si="2"/>
         <v>26.265624999999993</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="41">
         <f t="shared" si="2"/>
         <v>26.922265624999991</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="41">
         <f t="shared" si="2"/>
         <v>27.59532226562499</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="41">
         <f>B10</f>
         <v>125000</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="44">
         <f t="shared" si="2"/>
         <v>128124.99999999999</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="44">
         <f t="shared" si="2"/>
         <v>131328.12499999997</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="44">
         <f t="shared" si="2"/>
         <v>134611.32812499997</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="44">
         <f t="shared" si="2"/>
         <v>137976.61132812497</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="41">
         <f>B7</f>
         <v>7000000</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="41">
         <f>B19*(1+$B$8)</f>
         <v>7174999.9999999991</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="41">
         <f>C19*(1+$B$8)</f>
         <v>7354374.9999999981</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="41">
         <f>D19*(1+$B$8)</f>
         <v>7538234.3749999972</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="41">
         <f>E19*(1+$B$8)</f>
         <v>7726690.2343749963</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="41">
         <f>B14*B16</f>
         <v>2500000</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="41">
         <f>C14*C16</f>
         <v>2716249.9999999995</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="41">
         <f>D14*D16</f>
         <v>2951205.6249999991</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="41">
         <f>E14*E16</f>
         <v>3206484.9115624991</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="41">
         <f>F14*F16</f>
         <v>3483845.8564126552</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="41">
         <f>B17*B15</f>
         <v>1125000</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="41">
         <f>C17*C15</f>
         <v>1153124.9999999998</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="41">
         <f>D17*D15</f>
         <v>1313281.2499999998</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="41">
         <f>E17*E15</f>
         <v>1346113.2812499998</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="41">
         <f>F17*F15</f>
         <v>1517742.7246093748</v>
       </c>
@@ -1783,29 +1760,29 @@
       <c r="A22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="45">
         <f>SUM(B19:B21)</f>
         <v>10625000</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="45">
         <f>SUM(C19:C21)</f>
         <v>11044374.999999998</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="45">
         <f>SUM(D19:D21)</f>
         <v>11618861.874999996</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="45">
         <f>SUM(E19:E21)</f>
         <v>12090832.567812497</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="45">
         <f>SUM(F19:F21)</f>
         <v>12728278.815397026</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$C$4:$E$4</formula1>

--- a/week-2/Solutions/2-5-A-data-validation-solutions.xlsx
+++ b/week-2/Solutions/2-5-A-data-validation-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cory.jez\Documents\CJKB\thinkful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5D431-D39A-4DC5-9A27-90510F9CBBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B14F3FA-C120-430C-B2A0-35A85A14989F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24090" yWindow="2940" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starbucks-solution" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -406,35 +406,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyProtection="1"/>
@@ -463,6 +434,50 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -810,35 +825,35 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -846,147 +861,147 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="43">
         <v>2.95</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="43">
         <v>3.75</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="44">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="46">
         <v>2.95</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="46">
         <v>3.65</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="47">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2">
         <f>INDEX($A$1:$D$10,MATCH($G$1,$A$1:$A$10,0),MATCH($G$2,$A$1:$D$1,0))</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="43">
+        <v>3.75</v>
+      </c>
+      <c r="C4" s="43">
+        <v>3.95</v>
+      </c>
+      <c r="D4" s="44">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="46">
+        <v>3.95</v>
+      </c>
+      <c r="D5" s="47">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43">
+        <v>3.45</v>
+      </c>
+      <c r="C6" s="43">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D6" s="44">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26">
-        <v>3.75</v>
-      </c>
-      <c r="C4" s="26">
+      <c r="C7" s="46">
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="47">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="43">
         <v>3.95</v>
       </c>
-      <c r="D4" s="27">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29">
-        <v>3.25</v>
-      </c>
-      <c r="C5" s="29">
-        <v>3.95</v>
-      </c>
-      <c r="D5" s="30">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26">
-        <v>3.45</v>
-      </c>
-      <c r="C6" s="26">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D6" s="27">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29">
-        <v>2.4</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="C8" s="43">
+        <v>4.75</v>
+      </c>
+      <c r="D8" s="44">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46">
+        <v>2.25</v>
+      </c>
+      <c r="C9" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="47">
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="26">
-        <v>3.95</v>
-      </c>
-      <c r="C8" s="26">
-        <v>4.75</v>
-      </c>
-      <c r="D8" s="27">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="29">
-        <v>2.25</v>
-      </c>
-      <c r="C9" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="D9" s="30">
-        <v>2.75</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="49">
         <v>1.75</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="49">
         <v>1.95</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="50">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$10</formula1>
@@ -1387,396 +1402,396 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" style="34"/>
-    <col min="10" max="10" width="13.28515625" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="34"/>
+    <col min="1" max="1" width="30.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="21"/>
+    <col min="10" max="10" width="13.28515625" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="26">
         <f t="shared" ref="B5:B10" si="0">SUMIF($C$4:$E$4,$B$1,C5:E5)</f>
         <v>12000</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="33">
         <v>8000</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="33">
         <v>10000</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="33">
         <v>12000</v>
       </c>
-      <c r="G5" s="34" t="str">
+      <c r="G5" s="21" t="str">
         <f t="shared" ref="G5:G10" ca="1" si="1">_xlfn.FORMULATEXT(B5)</f>
         <v>=SUMIF($C$4:$E$4,$B$1,C5:E5)</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="35">
         <v>0.02</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="35">
         <v>0.04</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="35">
         <v>0.06</v>
       </c>
-      <c r="G6" s="34" t="str">
+      <c r="G6" s="21" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C6:E6)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="28">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="36">
         <v>9000000</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="37">
         <v>8000000</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="36">
         <v>7000000</v>
       </c>
-      <c r="G7" s="34" t="str">
+      <c r="G7" s="21" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C7:E7)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="29">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="38">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="38">
         <v>0.03</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G8" s="34" t="str">
+      <c r="G8" s="21" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C8:E8)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="36">
         <v>75</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="36">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="36">
         <v>25</v>
       </c>
-      <c r="G9" s="34" t="str">
+      <c r="G9" s="21" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C9:E9)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="28">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="36">
         <v>175000</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="36">
         <v>150000</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="36">
         <v>125000</v>
       </c>
-      <c r="G10" s="34" t="str">
+      <c r="G10" s="21" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUMIF($C$4:$E$4,$B$1,C10:E10)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="33">
         <v>100000</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="26">
         <f>B14*(1+$B$6)</f>
         <v>106000</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="26">
         <f>C14*(1+$B$6)</f>
         <v>112360</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="26">
         <f>D14*(1+$B$6)</f>
         <v>119101.6</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="26">
         <f>E14*(1+$B$6)</f>
         <v>126247.69600000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="30">
         <f>ROUNDUP(B14/$B$5,0)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="30">
         <f>ROUNDUP(C14/$B$5,0)</f>
         <v>9</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="30">
         <f>ROUNDUP(D14/$B$5,0)</f>
         <v>10</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="30">
         <f>ROUNDUP(E14/$B$5,0)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="30">
         <f>ROUNDUP(F14/$B$5,0)</f>
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="28">
         <f>B9</f>
         <v>25</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="28">
         <f t="shared" ref="C16:F17" si="2">B16*(1+$B$8)</f>
         <v>25.624999999999996</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="28">
         <f t="shared" si="2"/>
         <v>26.265624999999993</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="28">
         <f t="shared" si="2"/>
         <v>26.922265624999991</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="28">
         <f t="shared" si="2"/>
         <v>27.59532226562499</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="28">
         <f>B10</f>
         <v>125000</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="31">
         <f t="shared" si="2"/>
         <v>128124.99999999999</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="31">
         <f t="shared" si="2"/>
         <v>131328.12499999997</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="31">
         <f t="shared" si="2"/>
         <v>134611.32812499997</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="31">
         <f t="shared" si="2"/>
         <v>137976.61132812497</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="28">
         <f>B7</f>
         <v>7000000</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="28">
         <f>B19*(1+$B$8)</f>
         <v>7174999.9999999991</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="28">
         <f>C19*(1+$B$8)</f>
         <v>7354374.9999999981</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="28">
         <f>D19*(1+$B$8)</f>
         <v>7538234.3749999972</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="28">
         <f>E19*(1+$B$8)</f>
         <v>7726690.2343749963</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="28">
         <f>B14*B16</f>
         <v>2500000</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="28">
         <f>C14*C16</f>
         <v>2716249.9999999995</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="28">
         <f>D14*D16</f>
         <v>2951205.6249999991</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="28">
         <f>E14*E16</f>
         <v>3206484.9115624991</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="28">
         <f>F14*F16</f>
         <v>3483845.8564126552</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="28">
         <f>B17*B15</f>
         <v>1125000</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="28">
         <f>C17*C15</f>
         <v>1153124.9999999998</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="28">
         <f>D17*D15</f>
         <v>1313281.2499999998</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="28">
         <f>E17*E15</f>
         <v>1346113.2812499998</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="28">
         <f>F17*F15</f>
         <v>1517742.7246093748</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="32">
         <f>SUM(B19:B21)</f>
         <v>10625000</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="32">
         <f>SUM(C19:C21)</f>
         <v>11044374.999999998</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="32">
         <f>SUM(D19:D21)</f>
         <v>11618861.874999996</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="32">
         <f>SUM(E19:E21)</f>
         <v>12090832.567812497</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="32">
         <f>SUM(F19:F21)</f>
         <v>12728278.815397026</v>
       </c>
